--- a/manage.xlsx
+++ b/manage.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D6C318-625F-4F5B-939A-68AA2D12AFED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE94CBCB-1B24-4452-A7C3-BBB9198D866C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21270" yWindow="-4350" windowWidth="13440" windowHeight="15885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasks" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="74">
   <si>
     <t>tasks view</t>
   </si>
@@ -155,6 +155,96 @@
   </si>
   <si>
     <t>with link to pay method with id</t>
+  </si>
+  <si>
+    <t>fv module</t>
+  </si>
+  <si>
+    <t>mes supp module</t>
+  </si>
+  <si>
+    <t>load schema/obj to db</t>
+  </si>
+  <si>
+    <t>list all odc/filters</t>
+  </si>
+  <si>
+    <t>lst all ppe</t>
+  </si>
+  <si>
+    <t>reading:</t>
+  </si>
+  <si>
+    <t>ppe:</t>
+  </si>
+  <si>
+    <t>schemas/models:</t>
+  </si>
+  <si>
+    <t>router and creator module for easy adding test obj_s to db</t>
+  </si>
+  <si>
+    <t>usage:</t>
+  </si>
+  <si>
+    <t>OR MAYBE</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>tariff(from r file)</t>
+  </si>
+  <si>
+    <t>date from(upd f file)</t>
+  </si>
+  <si>
+    <t>multiplicand</t>
+  </si>
+  <si>
+    <t>zones</t>
+  </si>
+  <si>
+    <t>meter OBJ</t>
+  </si>
+  <si>
+    <t>ppe OBJ</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>reading1 OBJ</t>
+  </si>
+  <si>
+    <t>reading2 OBJ</t>
+  </si>
+  <si>
+    <t>net value</t>
+  </si>
+  <si>
+    <t>gross value</t>
+  </si>
+  <si>
+    <t>losses percentage</t>
+  </si>
+  <si>
+    <t>loses value</t>
+  </si>
+  <si>
+    <t>full file line</t>
+  </si>
+  <si>
+    <t>origin file</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>meter:</t>
   </si>
 </sst>
 </file>
@@ -178,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,11 +293,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -217,12 +322,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -653,10 +761,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB373A26-C6AF-47E1-9CFA-0D75B84347F7}">
-  <dimension ref="A3:E31"/>
+  <dimension ref="A2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,55 +772,152 @@
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
@@ -722,11 +927,11 @@
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
@@ -734,25 +939,36 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -763,7 +979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -771,7 +987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -782,7 +998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -790,17 +1006,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>42</v>
       </c>
@@ -808,12 +1024,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>41</v>
       </c>
